--- a/biology/Histoire de la zoologie et de la botanique/Royal_Entomological_Society/Royal_Entomological_Society.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Royal_Entomological_Society/Royal_Entomological_Society.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Royal Entomological Society (Société entomologique royale) est une société savante consacrée à la diffusion et l’enrichissement de la science entomologique sous toutes ses formes.
 </t>
@@ -511,7 +523,9 @@
           <t>Les sociétés antérieures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondée en 1833 sous le nom de Entomological Society of London, elle est l’héritière de plusieurs petites sociétés antérieures, plus ou moins éphémères, dont la plus ancienne est l’Aurelian Society fondée en 1745 et disparaît le 25 mars 1748 dans le grand incendie de Cornhill et dont les membres, alors en plein conseil, échappent de justesse. D’autres sociétés sont plus tard constituées, dont l’une déjà nommée Entomological Society (1810-1822).
 En 1822, à la disparition de cette dernière, une Entomological Society of Great Britain est fondée. En 1824, ses membres ainsi que des membres de la défunte Entomological Society se réunissent avec des membres de la Linnean Society of London pour former un club zoologique au sein de celle-ci. Ce club deviendra plus tard une société autonome sous le nom de Zoological Society of London.
@@ -544,7 +558,9 @@
           <t>La fondation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le compte rendu de sa fondation nous est parvenu :
 À la réunion des gentlemen, amis de la science entomologique, tenue le 3 mai 1833 au British Museum, N.A. Vigors à la présidence, J.G. Children, le révérend F.W. Hope, W. Yarrell, J.E. Gray, J.F. Stephens, T. Horsfield, G.T. Rudd et George Gray, des lettres de M. Haworth, M. Bennett et J. Curtis ont été lues où ils exprimaient leurs regrets de ne pouvoir assister à la réunion.
@@ -584,7 +600,9 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1833-1834 : John George Children (1777-1852).
@@ -663,7 +681,9 @@
           <t>Présidents honoraires à vie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Révérend William Kirby (1759-1850).
 John Obadiah Westwood (1805-1893).</t>
@@ -694,12 +714,14 @@
           <t>Actions contemporaines</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Royal Entomological Society est l'organisatrice, depuis 2004, d'une « Semaine nationale de l'insecte » (National Insect Week). La première édition, du 14 au 20 juin 2004, fut lancée au Darwin Centre du Musée d'histoire naturelle de Londres[1].
-Le seconde édition, en 2006, s'est déroulée du 19 au 25 juin[2].
-La troisième édition, en 2008, s'est déroulée du 23 au 29 juin[3].
-La quatrième édition, en 2010, s'est déroulée du 21 au 27 juin[4]. Dans le cadre de l'Année internationale de la biodiversité, cette semaine nationale de l'insecte a regroupé, durant 7 jours, 279 manifestations[5] à travers le Royaume-Uni, avec le soutien de 38 partenaires différents[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Royal Entomological Society est l'organisatrice, depuis 2004, d'une « Semaine nationale de l'insecte » (National Insect Week). La première édition, du 14 au 20 juin 2004, fut lancée au Darwin Centre du Musée d'histoire naturelle de Londres.
+Le seconde édition, en 2006, s'est déroulée du 19 au 25 juin.
+La troisième édition, en 2008, s'est déroulée du 23 au 29 juin.
+La quatrième édition, en 2010, s'est déroulée du 21 au 27 juin. Dans le cadre de l'Année internationale de la biodiversité, cette semaine nationale de l'insecte a regroupé, durant 7 jours, 279 manifestations à travers le Royaume-Uni, avec le soutien de 38 partenaires différents.
 </t>
         </is>
       </c>
